--- a/01_studies/01_Laborstudie ProVisioNET/R script/reli/data/coding_expertise_reactions_JG_JP.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/R script/reli/data/coding_expertise_reactions_JG_JP.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\R script\reli\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/505858402c07da9d/Dokumente/GitHub/Mandy-PhD/01_studies/01_Laborstudie ProVisioNET/R script/reli/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="151" documentId="8_{84FFBFD6-1863-4161-BCA5-5B75DB669038}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{CCC2AC97-8A71-4920-BDEA-8EB54E22AF57}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{1E39A4BE-8510-4E77-9211-6E3E9A00DC6B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="20712" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="20712" windowHeight="13152" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="coder1" sheetId="1" r:id="rId1"/>
+    <sheet name="coder2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>whispering</t>
   </si>
@@ -91,7 +92,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -134,6 +135,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -158,7 +165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -180,6 +187,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -500,7 +508,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
+    <sheetView zoomScale="81" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -787,4 +795,179 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A6B4D7-4750-48E8-BEBE-0150FDD5CB66}">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>116</v>
+      </c>
+      <c r="B2" s="5">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5">
+        <v>2</v>
+      </c>
+      <c r="E2" s="6">
+        <v>6</v>
+      </c>
+      <c r="F2" s="6">
+        <v>3</v>
+      </c>
+      <c r="G2" s="6">
+        <v>2</v>
+      </c>
+      <c r="H2" s="7">
+        <v>2</v>
+      </c>
+      <c r="I2" s="7">
+        <v>4</v>
+      </c>
+      <c r="J2" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>120</v>
+      </c>
+      <c r="B3" s="5">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5">
+        <v>3</v>
+      </c>
+      <c r="D3" s="5">
+        <v>4</v>
+      </c>
+      <c r="E3" s="6">
+        <v>6</v>
+      </c>
+      <c r="F3" s="6">
+        <v>4</v>
+      </c>
+      <c r="G3" s="6">
+        <v>2</v>
+      </c>
+      <c r="H3" s="7">
+        <v>3</v>
+      </c>
+      <c r="I3" s="7">
+        <v>3</v>
+      </c>
+      <c r="J3" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>213</v>
+      </c>
+      <c r="B4" s="5">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5">
+        <v>4</v>
+      </c>
+      <c r="E4" s="6">
+        <v>6</v>
+      </c>
+      <c r="F4" s="6">
+        <v>2</v>
+      </c>
+      <c r="G4" s="6">
+        <v>2</v>
+      </c>
+      <c r="H4" s="7">
+        <v>2</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1</v>
+      </c>
+      <c r="J4" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>222</v>
+      </c>
+      <c r="B5" s="5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="6">
+        <v>2</v>
+      </c>
+      <c r="F5" s="6">
+        <v>3</v>
+      </c>
+      <c r="G5" s="6">
+        <v>2</v>
+      </c>
+      <c r="H5" s="7">
+        <v>2</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1</v>
+      </c>
+      <c r="J5" s="7">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/01_studies/01_Laborstudie ProVisioNET/R script/reli/data/coding_expertise_reactions_JG_JP.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/R script/reli/data/coding_expertise_reactions_JG_JP.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/505858402c07da9d/Dokumente/GitHub/Mandy-PhD/01_studies/01_Laborstudie ProVisioNET/R script/reli/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\R script\reli\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{1E39A4BE-8510-4E77-9211-6E3E9A00DC6B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="151" documentId="8_{84FFBFD6-1863-4161-BCA5-5B75DB669038}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{CCC2AC97-8A71-4920-BDEA-8EB54E22AF57}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="20712" windowHeight="13152" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="20712" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="coder1" sheetId="1" r:id="rId1"/>
-    <sheet name="coder2" sheetId="2" r:id="rId2"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>whispering</t>
   </si>
@@ -92,7 +91,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -135,12 +134,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -165,7 +158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -187,7 +180,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -508,7 +500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V12"/>
   <sheetViews>
-    <sheetView zoomScale="81" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -795,179 +787,4 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A6B4D7-4750-48E8-BEBE-0150FDD5CB66}">
-  <dimension ref="A1:J5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
-        <v>116</v>
-      </c>
-      <c r="B2" s="5">
-        <v>4</v>
-      </c>
-      <c r="C2" s="5">
-        <v>4</v>
-      </c>
-      <c r="D2" s="5">
-        <v>2</v>
-      </c>
-      <c r="E2" s="6">
-        <v>6</v>
-      </c>
-      <c r="F2" s="6">
-        <v>3</v>
-      </c>
-      <c r="G2" s="6">
-        <v>2</v>
-      </c>
-      <c r="H2" s="7">
-        <v>2</v>
-      </c>
-      <c r="I2" s="7">
-        <v>4</v>
-      </c>
-      <c r="J2" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
-        <v>120</v>
-      </c>
-      <c r="B3" s="5">
-        <v>4</v>
-      </c>
-      <c r="C3" s="5">
-        <v>3</v>
-      </c>
-      <c r="D3" s="5">
-        <v>4</v>
-      </c>
-      <c r="E3" s="6">
-        <v>6</v>
-      </c>
-      <c r="F3" s="6">
-        <v>4</v>
-      </c>
-      <c r="G3" s="6">
-        <v>2</v>
-      </c>
-      <c r="H3" s="7">
-        <v>3</v>
-      </c>
-      <c r="I3" s="7">
-        <v>3</v>
-      </c>
-      <c r="J3" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
-        <v>213</v>
-      </c>
-      <c r="B4" s="5">
-        <v>6</v>
-      </c>
-      <c r="C4" s="5">
-        <v>2</v>
-      </c>
-      <c r="D4" s="5">
-        <v>4</v>
-      </c>
-      <c r="E4" s="6">
-        <v>6</v>
-      </c>
-      <c r="F4" s="6">
-        <v>2</v>
-      </c>
-      <c r="G4" s="6">
-        <v>2</v>
-      </c>
-      <c r="H4" s="7">
-        <v>2</v>
-      </c>
-      <c r="I4" s="7">
-        <v>1</v>
-      </c>
-      <c r="J4" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
-        <v>222</v>
-      </c>
-      <c r="B5" s="5">
-        <v>2</v>
-      </c>
-      <c r="C5" s="5">
-        <v>2</v>
-      </c>
-      <c r="D5" s="5">
-        <v>4</v>
-      </c>
-      <c r="E5" s="6">
-        <v>2</v>
-      </c>
-      <c r="F5" s="6">
-        <v>3</v>
-      </c>
-      <c r="G5" s="6">
-        <v>2</v>
-      </c>
-      <c r="H5" s="7">
-        <v>2</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1</v>
-      </c>
-      <c r="J5" s="7">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
 </file>